--- a/Анемии_показатели и диагнозы.xlsx
+++ b/Анемии_показатели и диагнозы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" tabRatio="951" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" tabRatio="951" firstSheet="5" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Диагнозы" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="АХЗ" sheetId="11" r:id="rId13"/>
     <sheet name="B12-деф" sheetId="9" r:id="rId14"/>
     <sheet name="Фолиеводеф" sheetId="10" r:id="rId15"/>
+    <sheet name="Все показатели" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="206">
   <si>
     <t>НЖСС</t>
   </si>
@@ -625,13 +626,34 @@
   </si>
   <si>
     <t>в норме отсутствует</t>
+  </si>
+  <si>
+    <t>код</t>
+  </si>
+  <si>
+    <t>название</t>
+  </si>
+  <si>
+    <t>м (min)</t>
+  </si>
+  <si>
+    <t>м (max)</t>
+  </si>
+  <si>
+    <t>ж (min)</t>
+  </si>
+  <si>
+    <t>ж (max)</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +720,15 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,6 +917,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -904,12 +938,52 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1355,9 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1671,7 +1743,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1688,7 +1760,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="10" t="s">
         <v>195</v>
       </c>
@@ -1746,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1968,7 +2040,7 @@
   <dimension ref="A2:D25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2251,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2491,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2719,12 +2791,580 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="E2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="10">
+        <v>132</v>
+      </c>
+      <c r="F3" s="10">
+        <v>173</v>
+      </c>
+      <c r="G3" s="10">
+        <v>117</v>
+      </c>
+      <c r="H3" s="10">
+        <v>155</v>
+      </c>
+      <c r="J3" s="10">
+        <v>131</v>
+      </c>
+      <c r="K3" s="10">
+        <v>172</v>
+      </c>
+      <c r="L3" s="10">
+        <v>117</v>
+      </c>
+      <c r="M3" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="H4" s="10">
+        <v>26</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="10">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10">
+        <v>28</v>
+      </c>
+      <c r="L4" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="M4" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10">
+        <v>250</v>
+      </c>
+      <c r="G5" s="10">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>120</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="10">
+        <v>20</v>
+      </c>
+      <c r="K5" s="10">
+        <v>250</v>
+      </c>
+      <c r="L5" s="10">
+        <v>10</v>
+      </c>
+      <c r="M5" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10">
+        <v>191</v>
+      </c>
+      <c r="F6" s="10">
+        <v>663</v>
+      </c>
+      <c r="G6" s="10">
+        <v>191</v>
+      </c>
+      <c r="H6" s="10">
+        <v>663</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="10">
+        <v>191</v>
+      </c>
+      <c r="K6" s="10">
+        <v>663</v>
+      </c>
+      <c r="L6" s="10">
+        <v>191</v>
+      </c>
+      <c r="M6" s="10">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="G7" s="10">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="10">
+        <v>7</v>
+      </c>
+      <c r="K7" s="10">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L7" s="10">
+        <v>7</v>
+      </c>
+      <c r="M7" s="10">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="10">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10">
+        <v>34</v>
+      </c>
+      <c r="G8" s="10">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="10">
+        <v>27</v>
+      </c>
+      <c r="K8" s="10">
+        <v>34</v>
+      </c>
+      <c r="L8" s="10">
+        <v>27</v>
+      </c>
+      <c r="M8" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="10">
+        <v>80</v>
+      </c>
+      <c r="F9" s="10">
+        <v>99</v>
+      </c>
+      <c r="G9" s="10">
+        <v>81</v>
+      </c>
+      <c r="H9" s="10">
+        <v>100</v>
+      </c>
+      <c r="J9" s="10">
+        <v>81</v>
+      </c>
+      <c r="K9" s="10">
+        <v>101</v>
+      </c>
+      <c r="L9" s="10">
+        <v>81</v>
+      </c>
+      <c r="M9" s="10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="10">
+        <v>39</v>
+      </c>
+      <c r="F10" s="10">
+        <v>49</v>
+      </c>
+      <c r="G10" s="10">
+        <v>35</v>
+      </c>
+      <c r="H10" s="10">
+        <v>45</v>
+      </c>
+      <c r="J10" s="10">
+        <v>39</v>
+      </c>
+      <c r="K10" s="10">
+        <v>50</v>
+      </c>
+      <c r="L10" s="10">
+        <v>35</v>
+      </c>
+      <c r="M10" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="F11" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J11" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="L11" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="M11" s="10">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="10">
+        <v>45.3</v>
+      </c>
+      <c r="F12" s="10">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="G12" s="10">
+        <v>45.3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="10">
+        <v>45.3</v>
+      </c>
+      <c r="K12" s="10">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="L12" s="10">
+        <v>45.3</v>
+      </c>
+      <c r="M12" s="10">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="L13" s="10">
+        <v>2</v>
+      </c>
+      <c r="M13" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10">
+        <v>50</v>
+      </c>
+      <c r="G14" s="10">
+        <v>20</v>
+      </c>
+      <c r="H14" s="10">
+        <v>50</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="10">
+        <v>20</v>
+      </c>
+      <c r="K14" s="10">
+        <v>50</v>
+      </c>
+      <c r="L14" s="10">
+        <v>20</v>
+      </c>
+      <c r="M14" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="H15" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K15" s="10">
+        <v>5</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="M15" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="28"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:C1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:N26">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3345,7 +3985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3358,10 +4000,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>50</v>
       </c>
@@ -3370,7 +4012,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3387,7 +4029,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
@@ -3402,7 +4044,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3419,7 +4061,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
@@ -3434,7 +4076,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -3451,7 +4093,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
@@ -3466,7 +4108,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3483,7 +4125,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="9" t="s">
         <v>40</v>
       </c>
@@ -3498,7 +4140,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -3515,7 +4157,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
@@ -3530,7 +4172,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -3547,7 +4189,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
@@ -3562,7 +4204,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3579,7 +4221,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -3594,7 +4236,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3611,7 +4253,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
@@ -3626,7 +4268,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -3643,7 +4285,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
@@ -3679,7 +4321,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3785,7 +4427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3974,7 +4618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4151,7 +4797,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -4168,7 +4814,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
@@ -4183,7 +4829,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -4200,7 +4846,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
@@ -4215,7 +4861,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -4232,7 +4878,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
@@ -4247,7 +4893,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -4264,7 +4910,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
@@ -4279,7 +4925,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -4296,7 +4942,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="10" t="s">
         <v>39</v>
       </c>
@@ -4324,10 +4970,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4335,8 +4981,8 @@
     <col min="1" max="5" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -4351,7 +4997,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>156</v>
       </c>
@@ -4366,7 +5012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>157</v>
       </c>
@@ -4381,7 +5027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>174</v>
       </c>
@@ -4396,7 +5042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>175</v>
       </c>
@@ -4411,7 +5057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>159</v>
       </c>
@@ -4426,7 +5072,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>160</v>
       </c>
@@ -4441,7 +5087,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>161</v>
       </c>
@@ -4456,7 +5102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>176</v>
       </c>
@@ -4471,7 +5117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>177</v>
       </c>
@@ -4486,7 +5132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>178</v>
       </c>
@@ -4501,8 +5147,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -4517,13 +5163,9 @@
       <c r="E13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F13">
-        <f>C14/C13</f>
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
@@ -4536,13 +5178,9 @@
       <c r="E14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F14">
-        <f>D14/D13</f>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -4557,13 +5195,9 @@
       <c r="E15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F15">
-        <f>C16/C15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
@@ -4576,13 +5210,9 @@
       <c r="E16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F16">
-        <f>D16/D15</f>
-        <v>0.92168674698795183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="33" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -4597,13 +5227,9 @@
       <c r="E17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F17">
-        <f>C18/C17</f>
-        <v>0.88636363636363635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="34"/>
       <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
@@ -4616,13 +5242,9 @@
       <c r="E18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F18">
-        <f>D18/D17</f>
-        <v>0.89595375722543358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="32" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -4637,13 +5259,9 @@
       <c r="E19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F19">
-        <f>C20/C19</f>
-        <v>0.89312977099236646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="34"/>
       <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
@@ -4656,13 +5274,9 @@
       <c r="E20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F20">
-        <f>D20/D19</f>
-        <v>0.93023255813953487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="32" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -4677,13 +5291,9 @@
       <c r="E21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F21">
-        <f>C22/C21</f>
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="34"/>
       <c r="B22" s="10" t="s">
         <v>39</v>
       </c>
@@ -4695,10 +5305,6 @@
       </c>
       <c r="E22" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="F22">
-        <f>D22/D21</f>
-        <v>0.92528735632183912</v>
       </c>
     </row>
   </sheetData>
@@ -4717,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4905,7 +5511,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>166</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -4922,7 +5528,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -4937,7 +5543,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -4954,7 +5560,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10" t="s">
         <v>39</v>
       </c>
@@ -4969,7 +5575,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -4986,7 +5592,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
@@ -5001,7 +5607,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -5018,7 +5624,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -5033,7 +5639,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -5050,7 +5656,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
@@ -5080,8 +5686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5108,7 +5714,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="10" t="s">
         <v>179</v>
       </c>
@@ -5123,7 +5729,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="10" t="s">
         <v>176</v>
       </c>
@@ -5138,7 +5744,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="10" t="s">
         <v>177</v>
       </c>
@@ -5153,7 +5759,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="10" t="s">
         <v>178</v>
       </c>
@@ -5168,7 +5774,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -5185,7 +5791,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="10" t="s">
         <v>167</v>
       </c>
@@ -5200,7 +5806,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="10" t="s">
         <v>168</v>
       </c>
@@ -5215,7 +5821,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="10" t="s">
         <v>169</v>
       </c>
@@ -5230,7 +5836,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="10" t="s">
         <v>180</v>
       </c>
@@ -5245,7 +5851,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -5262,7 +5868,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="10" t="s">
         <v>167</v>
       </c>
@@ -5277,7 +5883,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="10" t="s">
         <v>168</v>
       </c>
@@ -5292,7 +5898,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="10" t="s">
         <v>169</v>
       </c>
@@ -5307,7 +5913,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>

--- a/Анемии_показатели и диагнозы.xlsx
+++ b/Анемии_показатели и диагнозы.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bolshov.e\Documents\FuzzyLogicForMedicalDataAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" tabRatio="951" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="19140" windowHeight="7335" tabRatio="951" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Диагнозы" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="208">
   <si>
     <t>НЖСС</t>
   </si>
@@ -647,6 +652,12 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>для инверсного набора только HGB</t>
   </si>
 </sst>
 </file>
@@ -917,6 +928,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -938,12 +955,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -952,17 +963,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -988,6 +989,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1036,7 +1040,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,7 +1075,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1286,19 +1290,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.453125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="17.08984375" style="2"/>
+    <col min="1" max="1" width="36.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="17.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>148</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>130</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>131</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>132</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>133</v>
       </c>
@@ -1431,10 +1435,10 @@
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -1449,7 +1453,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>156</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>182</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>183</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>184</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>185</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>186</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>187</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>188</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>189</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>190</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>191</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>167</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>168</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>169</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>170</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>170</v>
       </c>
@@ -1706,13 +1710,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.7265625" style="17"/>
+    <col min="1" max="5" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -1727,7 +1731,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>193</v>
@@ -1742,8 +1746,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -1759,8 +1763,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
       <c r="B5" s="10" t="s">
         <v>195</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="10" t="s">
         <v>196</v>
@@ -1789,7 +1793,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>69</v>
       </c>
@@ -1816,19 +1820,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
@@ -1841,8 +1845,11 @@
       <c r="D2" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>77</v>
       </c>
@@ -1855,8 +1862,11 @@
       <c r="D3" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>76</v>
       </c>
@@ -1869,8 +1879,11 @@
       <c r="D4" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1884,14 +1897,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="C6" s="7"/>
       <c r="D6" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -1905,19 +1918,19 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="C8" s="7"/>
       <c r="D8" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="C9" s="7"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -1931,7 +1944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1945,7 +1958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -1959,7 +1972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -1973,7 +1986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +2000,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -2001,7 +2014,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>155</v>
       </c>
@@ -2037,19 +2050,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.453125" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
@@ -2062,8 +2075,14 @@
       <c r="D2" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>77</v>
       </c>
@@ -2076,16 +2095,22 @@
       <c r="D3" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
@@ -2098,16 +2123,22 @@
       <c r="D5" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="17"/>
       <c r="C6" s="7"/>
       <c r="D6" s="14" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2152,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="17"/>
       <c r="C8" s="7"/>
@@ -2129,7 +2160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
@@ -2143,7 +2174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="17"/>
       <c r="C10" s="7"/>
@@ -2151,13 +2182,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="17"/>
       <c r="C11" s="7"/>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2171,14 +2202,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2192,14 +2223,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -2213,7 +2244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -2227,7 +2258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
@@ -2241,7 +2272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -2255,7 +2286,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2269,7 +2300,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="17"/>
       <c r="C21" s="6"/>
@@ -2277,7 +2308,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2291,7 +2322,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>155</v>
       </c>
@@ -2305,11 +2336,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
     </row>
@@ -2323,16 +2354,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -2345,9 +2376,11 @@
       <c r="D2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
@@ -2360,9 +2393,11 @@
       <c r="D3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
@@ -2376,7 +2411,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2384,7 +2419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>76</v>
       </c>
@@ -2398,7 +2433,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="7"/>
@@ -2406,7 +2441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2421,7 +2456,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -2429,13 +2464,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>81</v>
       </c>
@@ -2450,7 +2485,7 @@
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2464,7 +2499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -2478,7 +2513,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2492,7 +2527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -2506,7 +2541,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -2520,7 +2555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -2548,7 +2583,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -2564,15 +2599,15 @@
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
@@ -2585,9 +2620,11 @@
       <c r="D2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
@@ -2600,9 +2637,11 @@
       <c r="D3" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
@@ -2616,7 +2655,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2624,7 +2663,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>76</v>
       </c>
@@ -2638,7 +2677,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="17"/>
       <c r="C7" s="7"/>
@@ -2646,7 +2685,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2700,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
@@ -2669,13 +2708,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="1"/>
       <c r="C10" s="7"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>81</v>
       </c>
@@ -2690,7 +2729,7 @@
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2704,7 +2743,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -2718,7 +2757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -2732,7 +2771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -2746,7 +2785,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -2760,7 +2799,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -2774,13 +2813,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -2795,20 +2834,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>199</v>
       </c>
       <c r="E1" s="38" t="s">
@@ -2817,7 +2856,7 @@
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="37"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="38" t="s">
         <v>169</v>
       </c>
@@ -2825,9 +2864,9 @@
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="C2" s="36"/>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="E2" s="17" t="s">
         <v>201</v>
       </c>
@@ -2854,7 +2893,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>82</v>
       </c>
@@ -2889,7 +2928,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
@@ -2927,7 +2966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
@@ -2965,7 +3004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3042,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
@@ -3041,7 +3080,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3079,7 +3118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -3114,7 +3153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -3149,7 +3188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -3184,7 +3223,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
@@ -3222,7 +3261,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>2</v>
       </c>
@@ -3260,7 +3299,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,7 +3337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>155</v>
       </c>
@@ -3336,7 +3375,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="28"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -3349,10 +3388,10 @@
     <mergeCell ref="J1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:N26">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3367,16 +3406,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="59.6328125" customWidth="1"/>
-    <col min="5" max="7" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>153</v>
       </c>
@@ -3399,7 +3438,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3416,7 +3455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3462,7 +3501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -3525,7 +3564,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -3548,7 +3587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3610,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3579,7 +3618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -3625,7 +3664,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>155</v>
       </c>
@@ -3665,7 +3704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>128</v>
       </c>
@@ -3679,7 +3718,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -3687,7 +3726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -3704,7 +3743,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -3721,7 +3760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3738,7 +3777,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -3755,7 +3794,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -3772,7 +3811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -3780,7 +3819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>87</v>
       </c>
@@ -3794,7 +3833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>88</v>
       </c>
@@ -3808,7 +3847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -3816,7 +3855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>90</v>
       </c>
@@ -3824,7 +3863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>91</v>
       </c>
@@ -3832,7 +3871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -3840,7 +3879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>93</v>
       </c>
@@ -3848,7 +3887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>94</v>
       </c>
@@ -3856,7 +3895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>95</v>
       </c>
@@ -3864,7 +3903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
@@ -3872,7 +3911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>97</v>
       </c>
@@ -3880,7 +3919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>98</v>
       </c>
@@ -3888,7 +3927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>99</v>
       </c>
@@ -3896,7 +3935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -3913,7 +3952,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -3930,7 +3969,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -3947,7 +3986,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>125</v>
       </c>
@@ -3989,21 +4028,21 @@
       <selection activeCell="A19" sqref="A19:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="8" t="s">
         <v>50</v>
       </c>
@@ -4011,8 +4050,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -4028,8 +4067,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
@@ -4043,8 +4082,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -4060,8 +4099,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
@@ -4075,8 +4114,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -4092,8 +4131,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
       <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
@@ -4107,8 +4146,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -4124,8 +4163,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="9" t="s">
         <v>40</v>
       </c>
@@ -4139,8 +4178,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -4156,8 +4195,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
       <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
@@ -4171,8 +4210,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -4188,8 +4227,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
@@ -4203,8 +4242,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -4220,8 +4259,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
@@ -4235,8 +4274,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -4252,8 +4291,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
       <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
@@ -4267,8 +4306,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -4284,8 +4323,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
       <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
@@ -4324,19 +4363,19 @@
       <selection activeCell="A6" sqref="A6:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -4347,7 +4386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
@@ -4361,7 +4400,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>57</v>
       </c>
@@ -4375,7 +4414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>58</v>
       </c>
@@ -4389,7 +4428,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>59</v>
       </c>
@@ -4403,7 +4442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>60</v>
       </c>
@@ -4431,17 +4470,17 @@
       <selection activeCell="A7" sqref="A7:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.7265625" style="1"/>
+    <col min="1" max="5" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -4455,7 +4494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
@@ -4472,7 +4511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>71</v>
@@ -4487,7 +4526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>72</v>
@@ -4502,7 +4541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>73</v>
@@ -4517,7 +4556,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>74</v>
@@ -4532,7 +4571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>75</v>
       </c>
@@ -4549,7 +4588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>71</v>
@@ -4564,7 +4603,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>72</v>
@@ -4579,7 +4618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>73</v>
@@ -4594,7 +4633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>74</v>
@@ -4622,16 +4661,16 @@
       <selection activeCell="A17" sqref="A17:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="11.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="17"/>
     <col min="3" max="4" width="10" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -4646,7 +4685,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>156</v>
       </c>
@@ -4661,7 +4700,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>157</v>
       </c>
@@ -4676,7 +4715,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>158</v>
       </c>
@@ -4691,7 +4730,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>159</v>
       </c>
@@ -4706,7 +4745,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>160</v>
       </c>
@@ -4721,7 +4760,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>161</v>
       </c>
@@ -4736,7 +4775,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>162</v>
       </c>
@@ -4751,7 +4790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>163</v>
       </c>
@@ -4766,7 +4805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>164</v>
       </c>
@@ -4781,7 +4820,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>165</v>
       </c>
@@ -4796,8 +4835,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -4813,8 +4852,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
@@ -4828,8 +4867,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -4845,8 +4884,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
@@ -4860,8 +4899,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -4877,8 +4916,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
       <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
@@ -4892,8 +4931,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -4909,8 +4948,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
@@ -4924,8 +4963,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -4941,8 +4980,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="10" t="s">
         <v>39</v>
       </c>
@@ -4976,13 +5015,13 @@
       <selection activeCell="A17" sqref="A17:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.7265625" style="17"/>
+    <col min="1" max="5" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -4997,7 +5036,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>156</v>
       </c>
@@ -5012,7 +5051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>157</v>
       </c>
@@ -5027,7 +5066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>174</v>
       </c>
@@ -5042,7 +5081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>175</v>
       </c>
@@ -5057,7 +5096,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>159</v>
       </c>
@@ -5072,7 +5111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>160</v>
       </c>
@@ -5087,7 +5126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>161</v>
       </c>
@@ -5102,7 +5141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>176</v>
       </c>
@@ -5117,7 +5156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>177</v>
       </c>
@@ -5132,7 +5171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>178</v>
       </c>
@@ -5147,8 +5186,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -5164,8 +5203,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
@@ -5179,8 +5218,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -5196,8 +5235,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="10" t="s">
         <v>39</v>
       </c>
@@ -5211,8 +5250,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -5228,8 +5267,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
       <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
@@ -5243,8 +5282,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -5260,8 +5299,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
       <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
@@ -5275,8 +5314,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -5292,8 +5331,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
       <c r="B22" s="10" t="s">
         <v>39</v>
       </c>
@@ -5327,10 +5366,10 @@
       <selection activeCell="A18" sqref="A18:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -5345,7 +5384,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>156</v>
       </c>
@@ -5360,7 +5399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>157</v>
       </c>
@@ -5375,7 +5414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>174</v>
       </c>
@@ -5390,7 +5429,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>175</v>
       </c>
@@ -5405,7 +5444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>159</v>
       </c>
@@ -5420,7 +5459,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>160</v>
       </c>
@@ -5435,7 +5474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>161</v>
       </c>
@@ -5450,7 +5489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>162</v>
       </c>
@@ -5465,7 +5504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>163</v>
       </c>
@@ -5480,7 +5519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>164</v>
       </c>
@@ -5495,7 +5534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>165</v>
       </c>
@@ -5510,8 +5549,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
         <v>166</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -5527,8 +5566,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -5542,8 +5581,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
         <v>167</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -5559,8 +5598,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
       <c r="B17" s="10" t="s">
         <v>39</v>
       </c>
@@ -5574,8 +5613,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>168</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -5591,8 +5630,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
       <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
@@ -5606,8 +5645,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
         <v>169</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -5623,8 +5662,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
@@ -5638,8 +5677,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>170</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -5655,8 +5694,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
       <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
@@ -5690,15 +5729,15 @@
       <selection activeCell="A7" sqref="A7:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
@@ -5713,8 +5752,8 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
       <c r="B3" s="10" t="s">
         <v>179</v>
       </c>
@@ -5728,8 +5767,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
       <c r="B4" s="10" t="s">
         <v>176</v>
       </c>
@@ -5743,8 +5782,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="35"/>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
       <c r="B5" s="10" t="s">
         <v>177</v>
       </c>
@@ -5758,8 +5797,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
       <c r="B6" s="10" t="s">
         <v>178</v>
       </c>
@@ -5773,8 +5812,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -5790,8 +5829,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
       <c r="B8" s="10" t="s">
         <v>167</v>
       </c>
@@ -5805,8 +5844,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
       <c r="B9" s="10" t="s">
         <v>168</v>
       </c>
@@ -5820,8 +5859,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="35"/>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
       <c r="B10" s="10" t="s">
         <v>169</v>
       </c>
@@ -5835,8 +5874,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
       <c r="B11" s="10" t="s">
         <v>180</v>
       </c>
@@ -5850,8 +5889,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -5867,8 +5906,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35"/>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
       <c r="B13" s="10" t="s">
         <v>167</v>
       </c>
@@ -5882,8 +5921,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
       <c r="B14" s="10" t="s">
         <v>168</v>
       </c>
@@ -5897,8 +5936,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="35"/>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
       <c r="B15" s="10" t="s">
         <v>169</v>
       </c>
@@ -5912,8 +5951,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
